--- a/BayesianFitForecast/curve-plague-bombay.xlsx
+++ b/BayesianFitForecast/curve-plague-bombay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D9A4E-937B-4790-93DA-74B8F8BDCA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01128E26-3CEA-4D5A-84E7-21C2556E4C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curve-plague-bombay" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>Weeks</t>
   </si>
   <si>
-    <t>cases</t>
+    <t>cases1</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
